--- a/biology/Mycologie/Suillellus_comptus/Suillellus_comptus.xlsx
+++ b/biology/Mycologie/Suillellus_comptus/Suillellus_comptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet terne, Bolet orné
 Suillellus comptus, le Bolet terne, anciennement Boletus comptus, est une espèce rare de champignons (Fungi) basidiomycètes du genre Suillellus dans la famille des Boletaceae. Il est caractérisé par son pied typiquement ponctué orné tout en haut d'un très court réseau, mais aussi sa grande variabilité d'apparence.
@@ -512,12 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillellus comptus (Simonini) Vizzini, Simonini &amp; Gelardi, 2014[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus comptus Simonini, 1993[1].
-Phylogénie
-Décrit à l'origine comme une espèce de Boletus en 1993, il a été transféré au genre Suillellus en 2014.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillellus comptus (Simonini) Vizzini, Simonini &amp; Gelardi, 2014. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus comptus Simonini, 1993.
 </t>
         </is>
       </c>
@@ -543,19 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description du sporophore</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Suillellus comptus, le Bolet orné, sont les suivantes :
-Son chapeau mesure jusqu'à 9 cm[2], il est de couleur brune, gris à rouge saumon, généralement avec des teintes roses ou olivâtres plus ou moins développées, par endroits tacheté de brun rougeâtre[3].
-L'hyménophore présente des pores oranges, brunes à saumon[3].
-Son stipe est typiquement fusiforme ou radicant. De couleur jaunâtre, orangeâtre, rougeâtre ou saumon, orné majoritairement de ponctuations hormis parfois un court réseau vers le haut du pied. La surface de la base du stipe souvent teintée de couleur betterave[4].
-La chair est jaune, bleuissante, sa saveur est douce[3]. Son odeur n'est pas distinctive[2].
-Tout comme Suillellus mendax, S. comptus se confond macroscopiquement avec Suillellus luridus (et S. mendax par la même occasion) de par sa grande variabilité d'apparence.
-Caractéristiques microscopiques
-Ses spores mesurent 10,5 à 13,5 μm x 4,5 à 6 μm avec un ratio de 1,8 x 2,2[2].
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit à l'origine comme une espèce de Boletus en 1993, il a été transféré au genre Suillellus en 2014.
 </t>
         </is>
       </c>
@@ -581,12 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce mycorhizienne, méditerranéenne[4], poussant sous Quercus en terrain calcaire[3], généralement sur des sols sablonneux[2]. Elle est recensée en Chypre, en Espagne, en France, en Italie, en Grèce et en Iran[5].
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Suillellus comptus, le Bolet orné, sont les suivantes :
+Son chapeau mesure jusqu'à 9 cm, il est de couleur brune, gris à rouge saumon, généralement avec des teintes roses ou olivâtres plus ou moins développées, par endroits tacheté de brun rougeâtre.
+L'hyménophore présente des pores oranges, brunes à saumon.
+Son stipe est typiquement fusiforme ou radicant. De couleur jaunâtre, orangeâtre, rougeâtre ou saumon, orné majoritairement de ponctuations hormis parfois un court réseau vers le haut du pied. La surface de la base du stipe souvent teintée de couleur betterave.
+La chair est jaune, bleuissante, sa saveur est douce. Son odeur n'est pas distinctive.
+Tout comme Suillellus mendax, S. comptus se confond macroscopiquement avec Suillellus luridus (et S. mendax par la même occasion) de par sa grande variabilité d'apparence.
 </t>
         </is>
       </c>
@@ -612,12 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comme toutes les espèces du groupe luridus, le Bolet orné est comestible à condition de prendre la précaution de bien le cuire car il est toxique si il est consommé cru ou mal cuit[6]. Sa rareté devrait cependant inciter à ne pas le consommer.
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 10,5 à 13,5 μm x 4,5 à 6 μm avec un ratio de 1,8 x 2,2.
 </t>
         </is>
       </c>
@@ -643,12 +667,80 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce mycorhizienne, méditerranéenne, poussant sous Quercus en terrain calcaire, généralement sur des sols sablonneux. Elle est recensée en Chypre, en Espagne, en France, en Italie, en Grèce et en Iran.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Suillellus_comptus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillellus_comptus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toutes les espèces du groupe luridus, le Bolet orné est comestible à condition de prendre la précaution de bien le cuire car il est toxique si il est consommé cru ou mal cuit. Sa rareté devrait cependant inciter à ne pas le consommer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Suillellus_comptus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillellus_comptus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suillellus comptus partage de nombreuses caractéristiques avec le Bolet blafard (Suillellus luridus) et le Bolet de Quélet (Suillellus queletii). Il se distingue de S. luridus principalement par sa chair jaune (et non orange à rouge) lorsque les tubes sont enlevés, ainsi que par le réseau qui est peu développé chez S. comptus. La distinction avec S. queletii, qui présente également une surface subhyménophorale jaune, est un peu plus difficile. S. queletii présente cependant rarement un chapeau coloré dans la gamme de couleur de S. comptus, de plus sa surface est normalement finement veloutée, et non pas généralement lisse comme chez S. comptus[2]. 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillellus comptus partage de nombreuses caractéristiques avec le Bolet blafard (Suillellus luridus) et le Bolet de Quélet (Suillellus queletii). Il se distingue de S. luridus principalement par sa chair jaune (et non orange à rouge) lorsque les tubes sont enlevés, ainsi que par le réseau qui est peu développé chez S. comptus. La distinction avec S. queletii, qui présente également une surface subhyménophorale jaune, est un peu plus difficile. S. queletii présente cependant rarement un chapeau coloré dans la gamme de couleur de S. comptus, de plus sa surface est normalement finement veloutée, et non pas généralement lisse comme chez S. comptus. 
 S. comptus est aussi à comparer avec le Bolet menteur (Suillellus mendax) aux teintes plus rouges et au réseau généralement plus développé, ainsi qu'également avec le Bolet des loups (Rubroboletus lupinus) aux pores généralement plus rouges et sans teinte betterave à la base, et enfin avec le Bolet à pied jaune (Neoboletus xanthopus) sans aucune trace de réseau et généralement sans teintes roses.
 </t>
         </is>
